--- a/ElektraReport/wwwroot/Altid_Misafir_Listesi.xlsx
+++ b/ElektraReport/wwwroot/Altid_Misafir_Listesi.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="600" yWindow="555" windowWidth="20100" windowHeight="7620"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sayfa1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjKEaQGZUP5tkA5m7yqu1TjATQTOg=="/>
@@ -21,66 +24,83 @@
     <t>S. No</t>
   </si>
   <si>
-    <t>Koor. Rez Numarası</t>
-  </si>
-  <si>
     <t>Otel Adı</t>
-  </si>
-  <si>
-    <t>Oda No</t>
-  </si>
-  <si>
-    <t>TC No</t>
-  </si>
-  <si>
-    <t>Adı</t>
-  </si>
-  <si>
-    <t>Soyadı</t>
-  </si>
-  <si>
-    <t>Giriş Tarihi</t>
-  </si>
-  <si>
-    <t>Çıkış Tarihi</t>
-  </si>
-  <si>
-    <t>Doğum Tarihi</t>
   </si>
   <si>
     <t>Gsm No</t>
   </si>
   <si>
-    <t>Geldiği İl</t>
+    <t>Koord.Mrkz. Geldi   Evet / Hayır</t>
   </si>
   <si>
-    <t>Koord.Mrkz. Geldi   Evet / Hayır</t>
+    <t>OdaNo (zorunlu)</t>
+  </si>
+  <si>
+    <t>TC No (Zorunlu)</t>
+  </si>
+  <si>
+    <t>Adı (Zorunlu)</t>
+  </si>
+  <si>
+    <t>Soyadı (Zorunlu)</t>
+  </si>
+  <si>
+    <t>Giriş Tarihi(Zorunlu) Gün.Ay.Yıl Şeklinde Örn:01.01.2023</t>
+  </si>
+  <si>
+    <t>Çıkış Tarihi(Zorunlu) Gün.Ay.Yıl Şeklinde Örn:01.01.2023</t>
+  </si>
+  <si>
+    <t>Doğum Tarihi Gün.Ay.Yıl Şeklinde Örn:01.01.1990</t>
+  </si>
+  <si>
+    <t>Geldiği İl (Kısaltmadan Yazın)</t>
+  </si>
+  <si>
+    <t>Koor. Rez Numarası - (Afat Formu ile gelmişse Afat Yazın)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,44 +108,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -315,343 +337,345 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="2" width="21.14"/>
-    <col customWidth="1" min="3" max="3" width="17.14"/>
-    <col customWidth="1" min="4" max="4" width="11.0"/>
-    <col customWidth="1" min="5" max="5" width="16.29"/>
-    <col customWidth="1" min="6" max="6" width="25.0"/>
-    <col customWidth="1" min="7" max="9" width="25.71"/>
-    <col customWidth="1" min="10" max="10" width="19.57"/>
-    <col customWidth="1" min="11" max="11" width="20.86"/>
-    <col customWidth="1" min="12" max="12" width="17.71"/>
-    <col customWidth="1" min="13" max="13" width="14.86"/>
-    <col customWidth="1" min="14" max="27" width="11.0"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="27" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -1589,9 +1613,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>